--- a/TTs/TT_Numeros.xlsx
+++ b/TTs/TT_Numeros.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\UTN\2_Nivel\ssl\ssl-repo\TP-automatas\TTs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\UTN\2_Nivel\ssl\ssl-tp-automatas-g25\TTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>TT</t>
   </si>
@@ -32,41 +32,38 @@
     <t>-</t>
   </si>
   <si>
-    <t>[0-9]</t>
-  </si>
-  <si>
-    <t>[0-7]</t>
-  </si>
-  <si>
-    <t>[0-9A-F]</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
     <t>0-+</t>
   </si>
   <si>
-    <t>0[Xx]</t>
-  </si>
-  <si>
-    <t>0[Cc]</t>
-  </si>
-  <si>
     <t>[1-9]</t>
   </si>
   <si>
-    <t>[1-9A-F]</t>
-  </si>
-  <si>
     <t>[1-7]</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Octal</t>
+  </si>
+  <si>
+    <t>Hexadecimal</t>
+  </si>
+  <si>
+    <t>[A-Fa-f1-9]</t>
+  </si>
+  <si>
+    <t>[Xx]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +79,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -91,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -191,11 +206,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -208,6 +232,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,274 +522,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="C16" s="11">
+        <v>4</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11">
+        <v>4</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="11">
+        <v>4</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="5">
-        <v>0</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="11">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6">
-        <v>10</v>
-      </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6">
+      <c r="E18" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="K3" s="6">
-        <v>2</v>
-      </c>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B19" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6">
+      <c r="C19" s="11">
+        <v>4</v>
+      </c>
+      <c r="D19" s="11">
         <v>3</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6">
-        <v>6</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="11">
-        <v>5</v>
-      </c>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
-        <v>6</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <v>9</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9">
-        <v>0</v>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" s="8">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8">
+        <v>4</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
